--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H2">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I2">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J2">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N2">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O2">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P2">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q2">
-        <v>49.61675716397451</v>
+        <v>179.9035973618488</v>
       </c>
       <c r="R2">
-        <v>198.467028655898</v>
+        <v>719.6143894473951</v>
       </c>
       <c r="S2">
-        <v>0.004808065949245251</v>
+        <v>0.01751844376233885</v>
       </c>
       <c r="T2">
-        <v>0.002812041079371716</v>
+        <v>0.01203937249212012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H3">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I3">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J3">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P3">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q3">
-        <v>650.2849133920342</v>
+        <v>822.2315142733792</v>
       </c>
       <c r="R3">
-        <v>3901.709480352205</v>
+        <v>4933.389085640275</v>
       </c>
       <c r="S3">
-        <v>0.06301525791085541</v>
+        <v>0.08006630636434141</v>
       </c>
       <c r="T3">
-        <v>0.05528256966827127</v>
+        <v>0.08253713338916635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H4">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I4">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J4">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N4">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O4">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P4">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q4">
-        <v>1695.908176359214</v>
+        <v>2973.204032004917</v>
       </c>
       <c r="R4">
-        <v>10175.44905815528</v>
+        <v>17839.2241920295</v>
       </c>
       <c r="S4">
-        <v>0.164340412833747</v>
+        <v>0.2895212124295345</v>
       </c>
       <c r="T4">
-        <v>0.1441739766366807</v>
+        <v>0.2984557676552463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H5">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I5">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J5">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N5">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O5">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P5">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q5">
-        <v>1158.863073835006</v>
+        <v>852.26927425783</v>
       </c>
       <c r="R5">
-        <v>4635.452295340023</v>
+        <v>3409.07709703132</v>
       </c>
       <c r="S5">
-        <v>0.1122985540294315</v>
+        <v>0.08299128850339133</v>
       </c>
       <c r="T5">
-        <v>0.06567883020289618</v>
+        <v>0.05703491985066245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H6">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I6">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J6">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N6">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O6">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P6">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q6">
-        <v>66.66940483745684</v>
+        <v>3833.808479907283</v>
       </c>
       <c r="R6">
-        <v>400.0164290247411</v>
+        <v>23002.8508794437</v>
       </c>
       <c r="S6">
-        <v>0.006460536995516644</v>
+        <v>0.3733241538008084</v>
       </c>
       <c r="T6">
-        <v>0.005667755689492577</v>
+        <v>0.3848448477120957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H7">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I7">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J7">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N7">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O7">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P7">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q7">
-        <v>1982.712238767055</v>
+        <v>1497.312684086884</v>
       </c>
       <c r="R7">
-        <v>11896.27343260233</v>
+        <v>8983.876104521305</v>
       </c>
       <c r="S7">
-        <v>0.1921328951600524</v>
+        <v>0.1458035772239389</v>
       </c>
       <c r="T7">
-        <v>0.1685560055515144</v>
+        <v>0.1503030406721678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.049831</v>
       </c>
       <c r="I8">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J8">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N8">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O8">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P8">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q8">
-        <v>0.02098096051233334</v>
+        <v>0.06016534312283334</v>
       </c>
       <c r="R8">
-        <v>0.125885763074</v>
+        <v>0.360992058737</v>
       </c>
       <c r="S8">
-        <v>2.033140567579334E-06</v>
+        <v>5.858710972961864E-06</v>
       </c>
       <c r="T8">
-        <v>1.783651115601176E-06</v>
+        <v>6.039509389423841E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.049831</v>
       </c>
       <c r="I9">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J9">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P9">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q9">
         <v>0.2749797219627778</v>
@@ -1013,10 +1013,10 @@
         <v>2.474817497665</v>
       </c>
       <c r="S9">
-        <v>2.664665555495266E-05</v>
+        <v>2.677665630720767E-05</v>
       </c>
       <c r="T9">
-        <v>3.506521216402098E-05</v>
+        <v>4.140446625488667E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.049831</v>
       </c>
       <c r="I10">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J10">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N10">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O10">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P10">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q10">
-        <v>0.7171323664532222</v>
+        <v>0.9943316497444445</v>
       </c>
       <c r="R10">
-        <v>6.454191298078999</v>
+        <v>8.9489848477</v>
       </c>
       <c r="S10">
-        <v>6.94930485047686E-05</v>
+        <v>9.682487366901121E-05</v>
       </c>
       <c r="T10">
-        <v>9.144819261535431E-05</v>
+        <v>0.0001497192990964713</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.049831</v>
       </c>
       <c r="I11">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J11">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N11">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O11">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P11">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q11">
-        <v>0.4900372733143334</v>
+        <v>0.2850252805986667</v>
       </c>
       <c r="R11">
-        <v>2.940223639886</v>
+        <v>1.710151683592</v>
       </c>
       <c r="S11">
-        <v>4.748660860477119E-05</v>
+        <v>2.7754861060224E-05</v>
       </c>
       <c r="T11">
-        <v>4.165946209752738E-05</v>
+        <v>2.86113694205048E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.049831</v>
       </c>
       <c r="I12">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J12">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N12">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O12">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P12">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q12">
-        <v>0.02819184949255556</v>
+        <v>1.282144470946333</v>
       </c>
       <c r="R12">
-        <v>0.253726645433</v>
+        <v>11.539300238517</v>
       </c>
       <c r="S12">
-        <v>2.73190509293948E-06</v>
+        <v>0.0001248511766237214</v>
       </c>
       <c r="T12">
-        <v>3.595003939550211E-06</v>
+        <v>0.0001930560810166684</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.049831</v>
       </c>
       <c r="I13">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J13">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N13">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O13">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P13">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q13">
-        <v>0.838410439670889</v>
+        <v>0.5007478044981112</v>
       </c>
       <c r="R13">
-        <v>7.545693957038001</v>
+        <v>4.506730240483</v>
       </c>
       <c r="S13">
-        <v>8.124538798759397E-05</v>
+        <v>4.876123869035602E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001069134834297687</v>
+        <v>7.5398998244522E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H14">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I14">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J14">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N14">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O14">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P14">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q14">
-        <v>0.023106382211</v>
+        <v>0.1742900559051667</v>
       </c>
       <c r="R14">
-        <v>0.138638293266</v>
+        <v>1.045740335431</v>
       </c>
       <c r="S14">
-        <v>2.239102590921038E-06</v>
+        <v>1.69718148357441E-05</v>
       </c>
       <c r="T14">
-        <v>1.9643392581541E-06</v>
+        <v>1.749556097392185E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H15">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I15">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J15">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P15">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q15">
-        <v>0.3028358283316667</v>
+        <v>0.7965753808772222</v>
       </c>
       <c r="R15">
-        <v>2.725522454985</v>
+        <v>7.169178427895</v>
       </c>
       <c r="S15">
-        <v>2.934602577111129E-05</v>
+        <v>7.756799317521922E-05</v>
       </c>
       <c r="T15">
-        <v>3.861740238705439E-05</v>
+        <v>0.0001199425842807019</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H16">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I16">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J16">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N16">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O16">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P16">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q16">
-        <v>0.7897795978123332</v>
+        <v>2.880430989455556</v>
       </c>
       <c r="R16">
-        <v>7.108016380310999</v>
+        <v>25.9238789051</v>
       </c>
       <c r="S16">
-        <v>7.653286124888513E-05</v>
+        <v>0.0002804872667364246</v>
       </c>
       <c r="T16">
-        <v>0.0001007121141967456</v>
+        <v>0.0004337145548448341</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H17">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I17">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J17">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N17">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O17">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P17">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q17">
-        <v>0.539679226229</v>
+        <v>0.8256758710493334</v>
       </c>
       <c r="R17">
-        <v>3.238075357374</v>
+        <v>4.954055226296</v>
       </c>
       <c r="S17">
-        <v>5.229711612492701E-05</v>
+        <v>8.040170694199425E-05</v>
       </c>
       <c r="T17">
-        <v>4.587966567899911E-05</v>
+        <v>8.288288434825971E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H18">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I18">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J18">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N18">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O18">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P18">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q18">
-        <v>0.03104775156633333</v>
+        <v>3.714181951285667</v>
       </c>
       <c r="R18">
-        <v>0.279429764097</v>
+        <v>33.427637561571</v>
       </c>
       <c r="S18">
-        <v>3.008653641215823E-06</v>
+        <v>0.0003616753004989677</v>
       </c>
       <c r="T18">
-        <v>3.9591864742545E-06</v>
+        <v>0.0005592547703838803</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H19">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I19">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J19">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N19">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O19">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P19">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q19">
-        <v>0.9233434311713334</v>
+        <v>1.450591957269889</v>
       </c>
       <c r="R19">
-        <v>8.310090880542001</v>
+        <v>13.055327615429</v>
       </c>
       <c r="S19">
-        <v>8.947574095184059E-05</v>
+        <v>0.000141254060497862</v>
       </c>
       <c r="T19">
-        <v>0.0001177440761201315</v>
+        <v>0.0002184196904254678</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H20">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I20">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J20">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N20">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O20">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P20">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q20">
-        <v>0.057546802993</v>
+        <v>0.4791850648237501</v>
       </c>
       <c r="R20">
-        <v>0.230187211972</v>
+        <v>1.916740259295</v>
       </c>
       <c r="S20">
-        <v>5.576519703699315E-06</v>
+        <v>4.666152724552332E-05</v>
       </c>
       <c r="T20">
-        <v>3.261478243489955E-06</v>
+        <v>3.206766052860081E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H21">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I21">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J21">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P21">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q21">
-        <v>0.7542173237283333</v>
+        <v>2.1900677209625</v>
       </c>
       <c r="R21">
-        <v>4.525303942369999</v>
+        <v>13.140406325775</v>
       </c>
       <c r="S21">
-        <v>7.308673197977691E-05</v>
+        <v>0.0002132618734033796</v>
       </c>
       <c r="T21">
-        <v>6.41181594180583E-05</v>
+        <v>0.000219843083703903</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H22">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I22">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J22">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N22">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O22">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P22">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q22">
-        <v>1.966958328143666</v>
+        <v>7.91932450325</v>
       </c>
       <c r="R22">
-        <v>11.801749968862</v>
+        <v>47.5159470195</v>
       </c>
       <c r="S22">
-        <v>0.0001906062770260732</v>
+        <v>0.0007711587927108225</v>
       </c>
       <c r="T22">
-        <v>0.0001672167208108578</v>
+        <v>0.0007949565682294127</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H23">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I23">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J23">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N23">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O23">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P23">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q23">
-        <v>1.344079476727</v>
+        <v>2.27007527043</v>
       </c>
       <c r="R23">
-        <v>5.376317906908</v>
+        <v>9.08030108172</v>
       </c>
       <c r="S23">
-        <v>0.000130246778195788</v>
+        <v>0.0002210527557229245</v>
       </c>
       <c r="T23">
-        <v>7.617601226952095E-05</v>
+        <v>0.0001519162605230532</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H24">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I24">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J24">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N24">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O24">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P24">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q24">
-        <v>0.07732490644566666</v>
+        <v>10.2116010569325</v>
       </c>
       <c r="R24">
-        <v>0.463949438674</v>
+        <v>61.26960634159501</v>
       </c>
       <c r="S24">
-        <v>7.493098520753932E-06</v>
+        <v>0.0009943734392342317</v>
       </c>
       <c r="T24">
-        <v>6.573610181692844E-06</v>
+        <v>0.001025059565246437</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H25">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I25">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J25">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N25">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O25">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P25">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q25">
-        <v>2.299601125060667</v>
+        <v>3.9881908205675</v>
       </c>
       <c r="R25">
-        <v>13.797606750364</v>
+        <v>23.929144923405</v>
       </c>
       <c r="S25">
-        <v>0.0002228407195115566</v>
+        <v>0.0003883574182402875</v>
       </c>
       <c r="T25">
-        <v>0.0001954956308954999</v>
+        <v>0.0004003420350891384</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H26">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I26">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J26">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N26">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O26">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P26">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q26">
-        <v>41.34689775168934</v>
+        <v>1.0218883887835</v>
       </c>
       <c r="R26">
-        <v>248.081386510136</v>
+        <v>6.131330332701</v>
       </c>
       <c r="S26">
-        <v>0.004006682873889333</v>
+        <v>9.950826182916101E-05</v>
       </c>
       <c r="T26">
-        <v>0.003515017353857397</v>
+        <v>0.0001025790629399557</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H27">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I27">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J27">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>49.664215</v>
       </c>
       <c r="O27">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P27">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q27">
-        <v>541.8988535391178</v>
+        <v>4.670439333338333</v>
       </c>
       <c r="R27">
-        <v>4877.08968185206</v>
+        <v>42.033954000045</v>
       </c>
       <c r="S27">
-        <v>0.05251220705589058</v>
+        <v>0.0004547926223061388</v>
       </c>
       <c r="T27">
-        <v>0.06910254376270353</v>
+        <v>0.0007032411204447963</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H28">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I28">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J28">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N28">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O28">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P28">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q28">
-        <v>1413.243145505106</v>
+        <v>16.88839313023334</v>
       </c>
       <c r="R28">
-        <v>12719.18830954595</v>
+        <v>151.9955381721</v>
       </c>
       <c r="S28">
-        <v>0.1369490195308654</v>
+        <v>0.001644538350687831</v>
       </c>
       <c r="T28">
-        <v>0.1802157278462626</v>
+        <v>0.002542932615062647</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H29">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I29">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J29">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N29">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O29">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P29">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q29">
-        <v>965.7098883692173</v>
+        <v>4.841059813436</v>
       </c>
       <c r="R29">
-        <v>5794.259330215305</v>
+        <v>29.046358880616</v>
       </c>
       <c r="S29">
-        <v>0.09358122329060183</v>
+        <v>0.0004714071054466971</v>
       </c>
       <c r="T29">
-        <v>0.08209774374840004</v>
+        <v>0.0004859546157381289</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H30">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I30">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J30">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N30">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O30">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P30">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q30">
-        <v>55.55730004422356</v>
+        <v>21.776798395849</v>
       </c>
       <c r="R30">
-        <v>500.015700398012</v>
+        <v>195.991185562641</v>
       </c>
       <c r="S30">
-        <v>0.005383728761068336</v>
+        <v>0.002120555806642105</v>
       </c>
       <c r="T30">
-        <v>0.007084626093172707</v>
+        <v>0.003278993475898748</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H31">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I31">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J31">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N31">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O31">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P31">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q31">
-        <v>1652.244219355137</v>
+        <v>8.505035300484334</v>
       </c>
       <c r="R31">
-        <v>14870.19797419623</v>
+        <v>76.54531770435899</v>
       </c>
       <c r="S31">
-        <v>0.1601091974766692</v>
+        <v>0.0008281934591255601</v>
       </c>
       <c r="T31">
-        <v>0.2106929692303186</v>
+        <v>0.001280626966170223</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H32">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I32">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J32">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N32">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O32">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P32">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q32">
-        <v>0.3005783323856667</v>
+        <v>0.2240501306803334</v>
       </c>
       <c r="R32">
-        <v>1.803469994314</v>
+        <v>1.344300784082</v>
       </c>
       <c r="S32">
-        <v>2.912726521502234E-05</v>
+        <v>2.181729366074615E-05</v>
       </c>
       <c r="T32">
-        <v>2.555301877481165E-05</v>
+        <v>2.249057011414229E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H33">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I33">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J33">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>49.664215</v>
       </c>
       <c r="O33">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P33">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q33">
-        <v>3.939426234507222</v>
+        <v>1.023998857854445</v>
       </c>
       <c r="R33">
-        <v>35.454836110565</v>
+        <v>9.215989720690001</v>
       </c>
       <c r="S33">
-        <v>0.0003817464546322711</v>
+        <v>9.971377263758099E-05</v>
       </c>
       <c r="T33">
-        <v>0.0005023527398002268</v>
+        <v>0.0001541863736440028</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H34">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I34">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J34">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N34">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O34">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P34">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q34">
-        <v>10.27381233006878</v>
+        <v>3.702798396911112</v>
       </c>
       <c r="R34">
-        <v>92.46431097061898</v>
+        <v>33.32518557220001</v>
       </c>
       <c r="S34">
-        <v>0.0009955742788649185</v>
+        <v>0.0003605668059493836</v>
       </c>
       <c r="T34">
-        <v>0.001310109001913827</v>
+        <v>0.0005575407167453151</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H35">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I35">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J35">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N35">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O35">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P35">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q35">
-        <v>7.020392909707667</v>
+        <v>1.061407582018667</v>
       </c>
       <c r="R35">
-        <v>42.122357458246</v>
+        <v>6.368445492112</v>
       </c>
       <c r="S35">
-        <v>0.0006803046798873935</v>
+        <v>0.0001033565159740227</v>
       </c>
       <c r="T35">
-        <v>0.0005968235647742553</v>
+        <v>0.0001065460732854126</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H36">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I36">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J36">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N36">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O36">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P36">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q36">
-        <v>0.4038832780014444</v>
+        <v>4.774586520351334</v>
       </c>
       <c r="R36">
-        <v>3.634949502013</v>
+        <v>42.97127868316201</v>
       </c>
       <c r="S36">
-        <v>3.913793539571066E-05</v>
+        <v>0.0004649341462414459</v>
       </c>
       <c r="T36">
-        <v>5.150289894662839E-05</v>
+        <v>0.0007189228538447773</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H37">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I37">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J37">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N37">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O37">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P37">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q37">
-        <v>12.01127144121311</v>
+        <v>1.864738156759778</v>
       </c>
       <c r="R37">
-        <v>108.101442970918</v>
+        <v>16.782643410838</v>
       </c>
       <c r="S37">
-        <v>0.001163941146592512</v>
+        <v>0.0001815823085792901</v>
       </c>
       <c r="T37">
-        <v>0.001531668511552266</v>
+        <v>0.0002807788426530266</v>
       </c>
     </row>
   </sheetData>
